--- a/S7_ASSIGNMENT/SUMMARY.xlsx
+++ b/S7_ASSIGNMENT/SUMMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75df4e63fbd4d7c9/EVA6/S7_ASSIGNMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{164E5676-F208-4499-95AE-EA01E9189E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{313D7FAF-9160-4CD9-817E-6D64B6CC98ED}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{164E5676-F208-4499-95AE-EA01E9189E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E8E32F-7BFF-437D-9495-22D6CDE6C768}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{056B151D-63BE-4F64-B285-C0E5E6C9141B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Experiment</t>
   </si>
@@ -96,23 +96,70 @@
 Correct MaxPool &amp; Increase Capacity</t>
   </si>
   <si>
-    <t>INCREASED CAPACITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The training accuracy never stagnated - which suggests that giving it few more epochs should help
-Also , In my experiments I observed that tweaking the capacity at the MaxPool Location improves the performance of the model
-</t>
+    <t>ADD MAXPOOL LAYER / 
+LR SCHEDULER /
+INCREASE CAPACITY</t>
   </si>
   <si>
     <t xml:space="preserve">MODIFIED MAXPOOL LOCATION
-INCREASED CAPACITY AT THE MAX POOL LOCATION &amp; DILATION
+INCREASED CAPACITY AT THE MAX POOL LOCATION
 INCREASED CAPACITY CLOSE TO THE OUTPUT LAYER
 Instead of  32x32x256 | 1x1x256x16 --&gt; 32x32x16 , use 
 32x32x256 | 1x1x256x32 --&gt; 32x32x32 </t>
   </si>
   <si>
-    <t xml:space="preserve">EPOCHS60
+    <t xml:space="preserve">EPOCHS85
+77.59
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also , In my experiments I observed that tweaking the capacity at the MaxPool Location improves the performance of the model - Which gives the advantage of convolution helping with the learning
+Experiment suggests - Using dilated convolution along with stride=2 is wrong choice
+The training accuracy never stagnated - which suggests that giving it few more epochs should help
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCHS85
+78.90
+</t>
+  </si>
+  <si>
+    <t>Improved  training and test accuracy
+Convert the convolution with stride=2 to dilated convolutions</t>
+  </si>
+  <si>
+    <t>ADD DILATED CONVOLUTIONS</t>
+  </si>
+  <si>
+    <t>Add dilation=2/padding=2 for  the depthwise separable convolutions</t>
+  </si>
+  <si>
+    <t>USE DILATED CONV INSTEAD OF STRIDE=2 CONV</t>
+  </si>
+  <si>
+    <t>USE CONVOLUTIONS WITH DILATION=2 &amp; PADDING = 0 AND TRANSITION LAYER IN BLOCK2 &amp; BLOCK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCHS85
+</t>
+  </si>
+  <si>
+    <t>Slight drop in the accuracy , expected because of the reduction in parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCHS85
+78.69
+</t>
+  </si>
+  <si>
+    <t>USE CONVOLUTIONS WITH DILATION=2 &amp; PADDING = 0 AND TRANSITION LAYER IN BLOCK1</t>
+  </si>
+  <si>
+    <t>Doing too many convolutions with bigger kernels and no padding is hurting the accuracy
+Hence distribute the dilation and padding to reduce the size of image gradually</t>
+  </si>
+  <si>
+    <t>GRADUAL REDUCTION OF IMAGE SIZE</t>
   </si>
 </sst>
 </file>
@@ -160,32 +207,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,23 +538,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0534103-6F49-4FD8-8C50-A2566E3BF3F9}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,19 +576,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>101712</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>70.900000000000006</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -558,108 +596,181 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="3">
         <v>48204</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>48204</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>61.13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>116000</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9">
-        <v>98128</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="3">
+        <v>85.51</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9">
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>116000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>86.67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3">
+        <v>89888</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3">
+        <v>84.79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>81632</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
         <v>84</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="9"/>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>81632</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/S7_ASSIGNMENT/SUMMARY.xlsx
+++ b/S7_ASSIGNMENT/SUMMARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75df4e63fbd4d7c9/EVA6/S7_ASSIGNMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{164E5676-F208-4499-95AE-EA01E9189E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E8E32F-7BFF-437D-9495-22D6CDE6C768}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{164E5676-F208-4499-95AE-EA01E9189E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC874489-FDB1-4E08-9E5D-B9E36F54D0ED}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{056B151D-63BE-4F64-B285-C0E5E6C9141B}"/>
   </bookViews>
@@ -140,10 +140,6 @@
     <t>USE CONVOLUTIONS WITH DILATION=2 &amp; PADDING = 0 AND TRANSITION LAYER IN BLOCK2 &amp; BLOCK3</t>
   </si>
   <si>
-    <t xml:space="preserve">EPOCHS85
-</t>
-  </si>
-  <si>
     <t>Slight drop in the accuracy , expected because of the reduction in parameters</t>
   </si>
   <si>
@@ -160,6 +156,11 @@
   </si>
   <si>
     <t>GRADUAL REDUCTION OF IMAGE SIZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCHS85
+79.53+
+</t>
   </si>
 </sst>
 </file>
@@ -541,7 +542,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -718,13 +719,13 @@
         <v>89888</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>84.79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -732,31 +733,34 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>81632</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
         <v>81632</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="3">
+        <v>86.1</v>
       </c>
       <c r="F13" s="2"/>
     </row>
